--- a/backend/public/excel/orders.xlsx
+++ b/backend/public/excel/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Order nummer</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Aantal pakketten</t>
   </si>
   <si>
+    <t>Ophaal moment</t>
+  </si>
+  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -40,43 +43,16 @@
     <t>Callebaut</t>
   </si>
   <si>
-    <t>callebauta@hotmail.com</t>
-  </si>
-  <si>
-    <t>Pagadders</t>
-  </si>
-  <si>
-    <t>2021-09-07T09:47:34.000Z</t>
-  </si>
-  <si>
-    <t>Aukje</t>
-  </si>
-  <si>
-    <t>Scheldeman</t>
-  </si>
-  <si>
-    <t>aukje.scheldeman@gmail.com</t>
-  </si>
-  <si>
-    <t>Hernieuwers</t>
-  </si>
-  <si>
-    <t>2021-09-07T12:07:42.000Z</t>
-  </si>
-  <si>
-    <t>Ali</t>
+    <t>0468279919</t>
   </si>
   <si>
     <t>Kabouters</t>
   </si>
   <si>
-    <t>2021-09-07T18:34:21.000Z</t>
-  </si>
-  <si>
-    <t>0468279919</t>
-  </si>
-  <si>
-    <t>2021-10-03T13:39:55.000Z</t>
+    <t>donderdag</t>
+  </si>
+  <si>
+    <t>2021-10-03T15:10:40.000Z</t>
   </si>
 </sst>
 </file>
@@ -453,16 +429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="7" width="30" customWidth="1"/>
+    <col min="5" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,97 +460,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/public/excel/orders.xlsx
+++ b/backend/public/excel/orders.xlsx
@@ -49,10 +49,10 @@
     <t>Kabouters</t>
   </si>
   <si>
-    <t>donderdag</t>
-  </si>
-  <si>
-    <t>2021-10-03T15:10:40.000Z</t>
+    <t/>
+  </si>
+  <si>
+    <t>2021-10-03T13:59:53.000Z</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/backend/public/excel/orders.xlsx
+++ b/backend/public/excel/orders.xlsx
@@ -49,10 +49,10 @@
     <t>Kabouters</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2021-10-03T13:59:53.000Z</t>
+    <t>donderdag</t>
+  </si>
+  <si>
+    <t>2022-10-01T12:31:34.000Z</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>

--- a/backend/public/excel/orders.xlsx
+++ b/backend/public/excel/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="747">
   <si>
     <t>Order nummer</t>
   </si>
@@ -37,6 +37,357 @@
     <t>Datum</t>
   </si>
   <si>
+    <t>Jurgen</t>
+  </si>
+  <si>
+    <t>De Jaegher</t>
+  </si>
+  <si>
+    <t>0476672832</t>
+  </si>
+  <si>
+    <t>Geen groep</t>
+  </si>
+  <si>
+    <t>donderdag</t>
+  </si>
+  <si>
+    <t>2022-10-08T21:01:26.000Z</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Delboo</t>
+  </si>
+  <si>
+    <t>050693262</t>
+  </si>
+  <si>
+    <t>Kabouters</t>
+  </si>
+  <si>
+    <t>2022-10-09T07:59:26.000Z</t>
+  </si>
+  <si>
+    <t>Kjento</t>
+  </si>
+  <si>
+    <t>Pagadders</t>
+  </si>
+  <si>
+    <t>2022-10-09T08:01:45.000Z</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Segaert</t>
+  </si>
+  <si>
+    <t>BE56063954495088</t>
+  </si>
+  <si>
+    <t>2022-10-09T10:04:11.000Z</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Sesier</t>
+  </si>
+  <si>
+    <t>0478458091</t>
+  </si>
+  <si>
+    <t>2022-10-10T10:29:27.000Z</t>
+  </si>
+  <si>
+    <t>Gilles</t>
+  </si>
+  <si>
+    <t>Van alboom</t>
+  </si>
+  <si>
+    <t>471850551</t>
+  </si>
+  <si>
+    <t>Jonghernieuwers</t>
+  </si>
+  <si>
+    <t>zaterdag</t>
+  </si>
+  <si>
+    <t>2022-10-11T12:43:33.000Z</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Monteyne</t>
+  </si>
+  <si>
+    <t>0475679158</t>
+  </si>
+  <si>
+    <t>2022-10-13T07:25:56.000Z</t>
+  </si>
+  <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
+    <t>Mouton</t>
+  </si>
+  <si>
+    <t>0477448786</t>
+  </si>
+  <si>
+    <t>Knapen</t>
+  </si>
+  <si>
+    <t>2022-10-13T07:27:14.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas </t>
+  </si>
+  <si>
+    <t>Van Ransbeke</t>
+  </si>
+  <si>
+    <t>0468162757</t>
+  </si>
+  <si>
+    <t>vrijdag</t>
+  </si>
+  <si>
+    <t>2022-10-13T15:25:45.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-14T18:53:48.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiel </t>
+  </si>
+  <si>
+    <t>Beyaert</t>
+  </si>
+  <si>
+    <t>0474587664</t>
+  </si>
+  <si>
+    <t>Jongknapen</t>
+  </si>
+  <si>
+    <t>2022-10-14T19:42:04.000Z</t>
+  </si>
+  <si>
+    <t>Lies</t>
+  </si>
+  <si>
+    <t>Defossez</t>
+  </si>
+  <si>
+    <t>0456145530</t>
+  </si>
+  <si>
+    <t>2022-10-15T12:31:11.000Z</t>
+  </si>
+  <si>
+    <t>Anouchka</t>
+  </si>
+  <si>
+    <t>Crosse</t>
+  </si>
+  <si>
+    <t>0498856834</t>
+  </si>
+  <si>
+    <t>2022-10-15T16:16:26.000Z</t>
+  </si>
+  <si>
+    <t>Ilja</t>
+  </si>
+  <si>
+    <t>Damman</t>
+  </si>
+  <si>
+    <t>+32477832896</t>
+  </si>
+  <si>
+    <t>2022-10-15T16:19:30.000Z</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Aernoudts</t>
+  </si>
+  <si>
+    <t>0478410864</t>
+  </si>
+  <si>
+    <t>2022-10-15T21:53:59.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cathérine </t>
+  </si>
+  <si>
+    <t>Vyvey</t>
+  </si>
+  <si>
+    <t>0494749090</t>
+  </si>
+  <si>
+    <t>2022-10-16T07:09:48.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip </t>
+  </si>
+  <si>
+    <t>Lapierre</t>
+  </si>
+  <si>
+    <t>0496862923</t>
+  </si>
+  <si>
+    <t>2022-10-16T10:17:32.000Z</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>Baillieu</t>
+  </si>
+  <si>
+    <t>0465039200</t>
+  </si>
+  <si>
+    <t>2022-10-16T10:18:31.000Z</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Lagrou</t>
+  </si>
+  <si>
+    <t>0486302738</t>
+  </si>
+  <si>
+    <t>2022-10-16T18:57:37.000Z</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Van Maele</t>
+  </si>
+  <si>
+    <t>0478302949</t>
+  </si>
+  <si>
+    <t>2022-10-17T08:06:57.000Z</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Steevens</t>
+  </si>
+  <si>
+    <t>+32478253559</t>
+  </si>
+  <si>
+    <t>2022-10-17T09:01:00.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-17T09:24:27.000Z</t>
+  </si>
+  <si>
+    <t>reinhart</t>
+  </si>
+  <si>
+    <t>tulpin</t>
+  </si>
+  <si>
+    <t>0473824662</t>
+  </si>
+  <si>
+    <t>2022-10-17T17:00:06.000Z</t>
+  </si>
+  <si>
+    <t>Arne</t>
+  </si>
+  <si>
+    <t>Geerolf</t>
+  </si>
+  <si>
+    <t>0474620208</t>
+  </si>
+  <si>
+    <t>2022-10-18T17:32:39.000Z</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Lefevere</t>
+  </si>
+  <si>
+    <t>0473554147</t>
+  </si>
+  <si>
+    <t>2022-10-18T18:02:29.000Z</t>
+  </si>
+  <si>
+    <t>Wim</t>
+  </si>
+  <si>
+    <t>Hogie</t>
+  </si>
+  <si>
+    <t>0479725323</t>
+  </si>
+  <si>
+    <t>2022-10-18T18:30:01.000Z</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Hillewaert</t>
+  </si>
+  <si>
+    <t>+32478238947</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:11:19.000Z</t>
+  </si>
+  <si>
+    <t>Vic</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:11:46.000Z</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>2022-10-19T10:12:12.000Z</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Passchyn</t>
+  </si>
+  <si>
+    <t>0473  89 56 72</t>
+  </si>
+  <si>
+    <t>2022-10-19T16:01:09.000Z</t>
+  </si>
+  <si>
     <t>Alexander</t>
   </si>
   <si>
@@ -46,13 +397,1861 @@
     <t>0468279919</t>
   </si>
   <si>
-    <t>Kabouters</t>
-  </si>
-  <si>
-    <t>donderdag</t>
-  </si>
-  <si>
-    <t>2022-10-01T12:31:34.000Z</t>
+    <t>2022-10-19T17:14:29.000Z</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Van Wassenhove</t>
+  </si>
+  <si>
+    <t>0468 29 94 62</t>
+  </si>
+  <si>
+    <t>2022-10-20T06:22:02.000Z</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>De Knock</t>
+  </si>
+  <si>
+    <t>0487881175</t>
+  </si>
+  <si>
+    <t>2022-10-20T06:52:29.000Z</t>
+  </si>
+  <si>
+    <t>Siebe</t>
+  </si>
+  <si>
+    <t>2022-10-20T09:00:42.000Z</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Vandendreschs</t>
+  </si>
+  <si>
+    <t>0494860143</t>
+  </si>
+  <si>
+    <t>2022-10-20T11:12:45.000Z</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Decorte</t>
+  </si>
+  <si>
+    <t>0473321059</t>
+  </si>
+  <si>
+    <t>2022-10-20T14:49:57.000Z</t>
+  </si>
+  <si>
+    <t>Maarten</t>
+  </si>
+  <si>
+    <t>Bonne</t>
+  </si>
+  <si>
+    <t>0491420343</t>
+  </si>
+  <si>
+    <t>2022-10-20T15:36:28.000Z</t>
+  </si>
+  <si>
+    <t>Heleen</t>
+  </si>
+  <si>
+    <t>Van Houcke</t>
+  </si>
+  <si>
+    <t>0472095683</t>
+  </si>
+  <si>
+    <t>2022-10-20T15:37:16.000Z</t>
+  </si>
+  <si>
+    <t>Gaitan</t>
+  </si>
+  <si>
+    <t>Vanquatem</t>
+  </si>
+  <si>
+    <t>0476641724</t>
+  </si>
+  <si>
+    <t>2022-10-20T15:54:39.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baptiste </t>
+  </si>
+  <si>
+    <t>Van de veire</t>
+  </si>
+  <si>
+    <t>0472749845</t>
+  </si>
+  <si>
+    <t>2022-10-20T15:58:07.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent </t>
+  </si>
+  <si>
+    <t>Quairiaux</t>
+  </si>
+  <si>
+    <t>0488052398</t>
+  </si>
+  <si>
+    <t>2022-10-20T15:58:12.000Z</t>
+  </si>
+  <si>
+    <t>Fleur</t>
+  </si>
+  <si>
+    <t>Kinds</t>
+  </si>
+  <si>
+    <t>0499267540</t>
+  </si>
+  <si>
+    <t>2022-10-20T16:59:44.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provoost </t>
+  </si>
+  <si>
+    <t>Bob en Raf</t>
+  </si>
+  <si>
+    <t>0475751809</t>
+  </si>
+  <si>
+    <t>2022-10-20T19:25:59.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentin </t>
+  </si>
+  <si>
+    <t>Keereman</t>
+  </si>
+  <si>
+    <t>0486160543</t>
+  </si>
+  <si>
+    <t>2022-10-21T06:55:03.000Z</t>
+  </si>
+  <si>
+    <t>Van Damme</t>
+  </si>
+  <si>
+    <t>050351066</t>
+  </si>
+  <si>
+    <t>2022-10-21T06:57:44.000Z</t>
+  </si>
+  <si>
+    <t>Stefanie</t>
+  </si>
+  <si>
+    <t>Christiaens</t>
+  </si>
+  <si>
+    <t>0484122699</t>
+  </si>
+  <si>
+    <t>2022-10-21T07:05:58.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca </t>
+  </si>
+  <si>
+    <t>Buyse</t>
+  </si>
+  <si>
+    <t>2022-10-21T07:07:55.000Z</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Rogissart</t>
+  </si>
+  <si>
+    <t>+32473554988</t>
+  </si>
+  <si>
+    <t>2022-10-21T08:15:05.000Z</t>
+  </si>
+  <si>
+    <t>Marthe</t>
+  </si>
+  <si>
+    <t>Masselus</t>
+  </si>
+  <si>
+    <t>0473288176</t>
+  </si>
+  <si>
+    <t>2022-10-21T08:34:55.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart </t>
+  </si>
+  <si>
+    <t>Huwel</t>
+  </si>
+  <si>
+    <t>0499575234</t>
+  </si>
+  <si>
+    <t>2022-10-21T08:44:54.000Z</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>0495638796</t>
+  </si>
+  <si>
+    <t>2022-10-21T10:07:25.000Z</t>
+  </si>
+  <si>
+    <t>Tarsis</t>
+  </si>
+  <si>
+    <t>De paepe</t>
+  </si>
+  <si>
+    <t>0470 884324</t>
+  </si>
+  <si>
+    <t>2022-10-21T15:16:45.000Z</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Duponselle</t>
+  </si>
+  <si>
+    <t>0478253559</t>
+  </si>
+  <si>
+    <t>2022-10-21T18:07:24.000Z</t>
+  </si>
+  <si>
+    <t>De Paepe</t>
+  </si>
+  <si>
+    <t>0470883424</t>
+  </si>
+  <si>
+    <t>2022-10-21T18:45:16.000Z</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Debruyn</t>
+  </si>
+  <si>
+    <t>0493724073</t>
+  </si>
+  <si>
+    <t>2022-10-21T19:06:16.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver </t>
+  </si>
+  <si>
+    <t>Verniest</t>
+  </si>
+  <si>
+    <t>049739945</t>
+  </si>
+  <si>
+    <t>2022-10-22T06:58:55.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-22T09:03:08.000Z</t>
+  </si>
+  <si>
+    <t>de Greve</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>0474268322</t>
+  </si>
+  <si>
+    <t>2022-10-22T09:37:20.000Z</t>
+  </si>
+  <si>
+    <t>Katrien</t>
+  </si>
+  <si>
+    <t>Smolders-Hardeman</t>
+  </si>
+  <si>
+    <t>0486608150</t>
+  </si>
+  <si>
+    <t>2022-10-22T11:34:49.000Z</t>
+  </si>
+  <si>
+    <t>Jens</t>
+  </si>
+  <si>
+    <t>Declercq</t>
+  </si>
+  <si>
+    <t>+32470056504</t>
+  </si>
+  <si>
+    <t>2022-10-22T12:51:53.000Z</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Deconinck</t>
+  </si>
+  <si>
+    <t>0485088683</t>
+  </si>
+  <si>
+    <t>2022-10-22T13:35:03.000Z</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>De Roeck</t>
+  </si>
+  <si>
+    <t>0468 33 04 29</t>
+  </si>
+  <si>
+    <t>2022-10-22T14:19:35.000Z</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Dujardin</t>
+  </si>
+  <si>
+    <t>0476381041</t>
+  </si>
+  <si>
+    <t>2022-10-22T14:34:18.000Z</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Stolle</t>
+  </si>
+  <si>
+    <t>0484201930</t>
+  </si>
+  <si>
+    <t>Aspiranten</t>
+  </si>
+  <si>
+    <t>2022-10-22T18:41:38.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rémi </t>
+  </si>
+  <si>
+    <t>Jacobs</t>
+  </si>
+  <si>
+    <t>0486897528</t>
+  </si>
+  <si>
+    <t>2022-10-23T06:32:12.000Z</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Dejonckheere</t>
+  </si>
+  <si>
+    <t>478320115</t>
+  </si>
+  <si>
+    <t>2022-10-23T08:03:00.000Z</t>
+  </si>
+  <si>
+    <t>katrien</t>
+  </si>
+  <si>
+    <t>vandewiele</t>
+  </si>
+  <si>
+    <t>0478741312</t>
+  </si>
+  <si>
+    <t>2022-10-23T09:21:27.000Z</t>
+  </si>
+  <si>
+    <t>Siska</t>
+  </si>
+  <si>
+    <t>Mortier</t>
+  </si>
+  <si>
+    <t>0479302081</t>
+  </si>
+  <si>
+    <t>2022-10-23T09:51:36.000Z</t>
+  </si>
+  <si>
+    <t>Serge</t>
+  </si>
+  <si>
+    <t>Van Zandijcke</t>
+  </si>
+  <si>
+    <t>0475959612</t>
+  </si>
+  <si>
+    <t>2022-10-23T10:43:19.000Z</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Van Belleghem</t>
+  </si>
+  <si>
+    <t>0476665044</t>
+  </si>
+  <si>
+    <t>2022-10-23T11:55:19.000Z</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Cairns</t>
+  </si>
+  <si>
+    <t>0474350308</t>
+  </si>
+  <si>
+    <t>2022-10-23T14:36:03.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lander </t>
+  </si>
+  <si>
+    <t>Debackere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0494 41 12 47 </t>
+  </si>
+  <si>
+    <t>2022-10-23T14:54:20.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-23T14:58:09.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haerens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0471 47 77 26 </t>
+  </si>
+  <si>
+    <t>2022-10-23T14:59:16.000Z</t>
+  </si>
+  <si>
+    <t>Ilse</t>
+  </si>
+  <si>
+    <t>Inghelbrecht</t>
+  </si>
+  <si>
+    <t>0472437685</t>
+  </si>
+  <si>
+    <t>2022-10-23T15:04:17.000Z</t>
+  </si>
+  <si>
+    <t>Candaele</t>
+  </si>
+  <si>
+    <t>0477570948</t>
+  </si>
+  <si>
+    <t>2022-10-23T16:26:30.000Z</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Declerck</t>
+  </si>
+  <si>
+    <t>0498371406</t>
+  </si>
+  <si>
+    <t>2022-10-23T17:18:46.000Z</t>
+  </si>
+  <si>
+    <t>Veerle</t>
+  </si>
+  <si>
+    <t>Van de Cappelle</t>
+  </si>
+  <si>
+    <t>0496938425</t>
+  </si>
+  <si>
+    <t>2022-10-23T17:19:42.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Kruijter </t>
+  </si>
+  <si>
+    <t>0468123438</t>
+  </si>
+  <si>
+    <t>2022-10-23T17:45:26.000Z</t>
+  </si>
+  <si>
+    <t>Senon</t>
+  </si>
+  <si>
+    <t>Troffaes</t>
+  </si>
+  <si>
+    <t>0476049105</t>
+  </si>
+  <si>
+    <t>2022-10-23T19:02:55.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-24T06:41:31.000Z</t>
+  </si>
+  <si>
+    <t>Xander</t>
+  </si>
+  <si>
+    <t>Missault</t>
+  </si>
+  <si>
+    <t>0478774480</t>
+  </si>
+  <si>
+    <t>2022-10-24T10:28:02.000Z</t>
+  </si>
+  <si>
+    <t>Joris</t>
+  </si>
+  <si>
+    <t>Deckmyn</t>
+  </si>
+  <si>
+    <t>0494478924</t>
+  </si>
+  <si>
+    <t>2022-10-24T11:27:50.000Z</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Lagauw</t>
+  </si>
+  <si>
+    <t>0475535803</t>
+  </si>
+  <si>
+    <t>2022-10-24T11:45:33.000Z</t>
+  </si>
+  <si>
+    <t>Leen</t>
+  </si>
+  <si>
+    <t>De Bel</t>
+  </si>
+  <si>
+    <t>0471312613</t>
+  </si>
+  <si>
+    <t>2022-10-24T11:56:50.000Z</t>
+  </si>
+  <si>
+    <t>Emmeke</t>
+  </si>
+  <si>
+    <t>Verhaeghen</t>
+  </si>
+  <si>
+    <t>0486629251</t>
+  </si>
+  <si>
+    <t>2022-10-24T12:04:53.000Z</t>
+  </si>
+  <si>
+    <t>Cuypers</t>
+  </si>
+  <si>
+    <t>0471127444</t>
+  </si>
+  <si>
+    <t>2022-10-24T12:51:41.000Z</t>
+  </si>
+  <si>
+    <t>Gaétan</t>
+  </si>
+  <si>
+    <t>Schumacher</t>
+  </si>
+  <si>
+    <t>0475684823</t>
+  </si>
+  <si>
+    <t>2022-10-24T13:58:56.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joran </t>
+  </si>
+  <si>
+    <t>Houtekamer</t>
+  </si>
+  <si>
+    <t>0478954091</t>
+  </si>
+  <si>
+    <t>2022-10-24T14:10:46.000Z</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Devlieghere</t>
+  </si>
+  <si>
+    <t>0474 26 23 64</t>
+  </si>
+  <si>
+    <t>2022-10-24T14:25:31.000Z</t>
+  </si>
+  <si>
+    <t>Mats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seynaeve </t>
+  </si>
+  <si>
+    <t>0473/804143</t>
+  </si>
+  <si>
+    <t>2022-10-24T14:42:41.000Z</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>van der Linden</t>
+  </si>
+  <si>
+    <t>0486766575</t>
+  </si>
+  <si>
+    <t>2022-10-24T14:49:53.000Z</t>
+  </si>
+  <si>
+    <t>Ilan</t>
+  </si>
+  <si>
+    <t>Germonpré</t>
+  </si>
+  <si>
+    <t>0483330041</t>
+  </si>
+  <si>
+    <t>2022-10-24T14:53:49.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurice </t>
+  </si>
+  <si>
+    <t>Heyze</t>
+  </si>
+  <si>
+    <t>0032472523556</t>
+  </si>
+  <si>
+    <t>2022-10-24T15:00:36.000Z</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Floreal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0492 17 78 52 </t>
+  </si>
+  <si>
+    <t>2022-10-24T15:07:46.000Z</t>
+  </si>
+  <si>
+    <t>Ykter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haezebrouck </t>
+  </si>
+  <si>
+    <t>0478376505</t>
+  </si>
+  <si>
+    <t>2022-10-24T15:08:01.000Z</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>32474828688</t>
+  </si>
+  <si>
+    <t>2022-10-24T16:23:11.000Z</t>
+  </si>
+  <si>
+    <t>Dries</t>
+  </si>
+  <si>
+    <t>Janssens</t>
+  </si>
+  <si>
+    <t>0471514723</t>
+  </si>
+  <si>
+    <t>2022-10-24T16:26:47.000Z</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>Seynaeve</t>
+  </si>
+  <si>
+    <t>0499/162500</t>
+  </si>
+  <si>
+    <t>2022-10-24T16:52:26.000Z</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanderstraeten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0494 74 79 19 </t>
+  </si>
+  <si>
+    <t>2022-10-24T17:09:32.000Z</t>
+  </si>
+  <si>
+    <t>Loukas</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:10:27.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loukas </t>
+  </si>
+  <si>
+    <t>2022-10-24T17:14:30.000Z</t>
+  </si>
+  <si>
+    <t>Laurens</t>
+  </si>
+  <si>
+    <t>Van Haecke</t>
+  </si>
+  <si>
+    <t>47471565</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:14:43.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxim </t>
+  </si>
+  <si>
+    <t>2022-10-24T17:15:07.000Z</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Lycke</t>
+  </si>
+  <si>
+    <t>0479188015</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:21:35.000Z</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Patteeuw</t>
+  </si>
+  <si>
+    <t>0498579311</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:27:54.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:34:32.000Z</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Priem</t>
+  </si>
+  <si>
+    <t>0476 54 11 17</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:36:21.000Z</t>
+  </si>
+  <si>
+    <t>Kenzo</t>
+  </si>
+  <si>
+    <t>Desmet</t>
+  </si>
+  <si>
+    <t>0474638253</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:39:47.000Z</t>
+  </si>
+  <si>
+    <t>gauthier</t>
+  </si>
+  <si>
+    <t>vasseur</t>
+  </si>
+  <si>
+    <t>0477409034</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:41:34.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel </t>
+  </si>
+  <si>
+    <t>van den Hemel</t>
+  </si>
+  <si>
+    <t>0476403669</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:42:59.000Z</t>
+  </si>
+  <si>
+    <t>Ferre en Warre</t>
+  </si>
+  <si>
+    <t>Van den Berghe</t>
+  </si>
+  <si>
+    <t>0473892371</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:51:23.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara </t>
+  </si>
+  <si>
+    <t>Pluvier</t>
+  </si>
+  <si>
+    <t>0491222076</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:51:29.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowie </t>
+  </si>
+  <si>
+    <t>Gryp</t>
+  </si>
+  <si>
+    <t>0497879145</t>
+  </si>
+  <si>
+    <t>2022-10-24T17:57:13.000Z</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>Stijnen</t>
+  </si>
+  <si>
+    <t>0495420101</t>
+  </si>
+  <si>
+    <t>2022-10-24T18:10:24.000Z</t>
+  </si>
+  <si>
+    <t>Florean</t>
+  </si>
+  <si>
+    <t>Braekevelt</t>
+  </si>
+  <si>
+    <t>0475755096</t>
+  </si>
+  <si>
+    <t>2022-10-24T18:13:40.000Z</t>
+  </si>
+  <si>
+    <t>Juliaan</t>
+  </si>
+  <si>
+    <t>Rombaux</t>
+  </si>
+  <si>
+    <t>0495540200</t>
+  </si>
+  <si>
+    <t>2022-10-24T18:17:19.000Z</t>
+  </si>
+  <si>
+    <t>Baudewyns</t>
+  </si>
+  <si>
+    <t>+32498691044</t>
+  </si>
+  <si>
+    <t>2022-10-24T18:26:42.000Z</t>
+  </si>
+  <si>
+    <t>Bogaert</t>
+  </si>
+  <si>
+    <t>0492125023</t>
+  </si>
+  <si>
+    <t>2022-10-24T18:33:39.000Z</t>
+  </si>
+  <si>
+    <t>Raf</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>0486876312</t>
+  </si>
+  <si>
+    <t>2022-10-24T18:44:59.000Z</t>
+  </si>
+  <si>
+    <t>Evelien</t>
+  </si>
+  <si>
+    <t>Den Hert</t>
+  </si>
+  <si>
+    <t>0497332341</t>
+  </si>
+  <si>
+    <t>2022-10-24T18:49:33.000Z</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Verstraete</t>
+  </si>
+  <si>
+    <t>+320474195804</t>
+  </si>
+  <si>
+    <t>2022-10-24T19:12:11.000Z</t>
+  </si>
+  <si>
+    <t>Lieselot</t>
+  </si>
+  <si>
+    <t>Matthys</t>
+  </si>
+  <si>
+    <t>0474665484</t>
+  </si>
+  <si>
+    <t>2022-10-24T19:13:14.000Z</t>
+  </si>
+  <si>
+    <t>Wani</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>0479571643</t>
+  </si>
+  <si>
+    <t>2022-10-24T19:25:15.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claeys </t>
+  </si>
+  <si>
+    <t>0471820624</t>
+  </si>
+  <si>
+    <t>2022-10-24T19:30:09.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruï </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Honacker </t>
+  </si>
+  <si>
+    <t>0494802224</t>
+  </si>
+  <si>
+    <t>2022-10-24T19:45:21.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-24T19:57:18.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breyne </t>
+  </si>
+  <si>
+    <t>0486247490</t>
+  </si>
+  <si>
+    <t>2022-10-24T20:00:43.000Z</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>DEPREEUW</t>
+  </si>
+  <si>
+    <t>+32472677474</t>
+  </si>
+  <si>
+    <t>2022-10-24T20:20:51.000Z</t>
+  </si>
+  <si>
+    <t>Walleyn</t>
+  </si>
+  <si>
+    <t>+32499733635</t>
+  </si>
+  <si>
+    <t>2022-10-24T20:25:06.000Z</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Fossion</t>
+  </si>
+  <si>
+    <t>0497932324</t>
+  </si>
+  <si>
+    <t>2022-10-24T20:25:20.000Z</t>
+  </si>
+  <si>
+    <t>Lanckriet</t>
+  </si>
+  <si>
+    <t>499349774</t>
+  </si>
+  <si>
+    <t>2022-10-24T21:53:59.000Z</t>
+  </si>
+  <si>
+    <t>Traffic- line bv</t>
+  </si>
+  <si>
+    <t>schelpe</t>
+  </si>
+  <si>
+    <t>+32471184189</t>
+  </si>
+  <si>
+    <t>2022-10-25T02:13:04.000Z</t>
+  </si>
+  <si>
+    <t>Thijs en Ward</t>
+  </si>
+  <si>
+    <t>Goes</t>
+  </si>
+  <si>
+    <t>0472833478</t>
+  </si>
+  <si>
+    <t>2022-10-25T04:39:45.000Z</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Dulieu</t>
+  </si>
+  <si>
+    <t>0474471311</t>
+  </si>
+  <si>
+    <t>2022-10-25T08:25:01.000Z</t>
+  </si>
+  <si>
+    <t>Chiens</t>
+  </si>
+  <si>
+    <t>0489057316</t>
+  </si>
+  <si>
+    <t>2022-10-25T08:31:37.000Z</t>
+  </si>
+  <si>
+    <t>Wouter</t>
+  </si>
+  <si>
+    <t>Mille</t>
+  </si>
+  <si>
+    <t>0473122961</t>
+  </si>
+  <si>
+    <t>2022-10-25T09:07:44.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vangheluwe </t>
+  </si>
+  <si>
+    <t>0498 56 03 83</t>
+  </si>
+  <si>
+    <t>2022-10-25T09:14:39.000Z</t>
+  </si>
+  <si>
+    <t>Vermeersch</t>
+  </si>
+  <si>
+    <t>0491362516</t>
+  </si>
+  <si>
+    <t>2022-10-25T09:22:58.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabeau </t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>0471196862</t>
+  </si>
+  <si>
+    <t>2022-10-25T09:36:01.000Z</t>
+  </si>
+  <si>
+    <t>Kazbek</t>
+  </si>
+  <si>
+    <t>Kokaev</t>
+  </si>
+  <si>
+    <t>0472675579</t>
+  </si>
+  <si>
+    <t>2022-10-25T09:59:52.000Z</t>
+  </si>
+  <si>
+    <t>0471850551</t>
+  </si>
+  <si>
+    <t>2022-10-25T10:15:30.000Z</t>
+  </si>
+  <si>
+    <t>Tibo</t>
+  </si>
+  <si>
+    <t>Leys</t>
+  </si>
+  <si>
+    <t>0485621872</t>
+  </si>
+  <si>
+    <t>2022-10-25T10:35:37.000Z</t>
+  </si>
+  <si>
+    <t>Vanthournout</t>
+  </si>
+  <si>
+    <t>0473295767</t>
+  </si>
+  <si>
+    <t>2022-10-25T11:53:10.000Z</t>
+  </si>
+  <si>
+    <t>Jelle</t>
+  </si>
+  <si>
+    <t>Vandermoere</t>
+  </si>
+  <si>
+    <t>0495459644</t>
+  </si>
+  <si>
+    <t>2022-10-25T12:32:59.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-25T13:43:03.000Z</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>0498366926</t>
+  </si>
+  <si>
+    <t>2022-10-25T15:50:30.000Z</t>
+  </si>
+  <si>
+    <t>Vanlanduyt</t>
+  </si>
+  <si>
+    <t>0473776297</t>
+  </si>
+  <si>
+    <t>2022-10-25T16:35:26.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-25T16:55:41.000Z</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>De Leyn</t>
+  </si>
+  <si>
+    <t>0498146288</t>
+  </si>
+  <si>
+    <t>2022-10-25T17:02:53.000Z</t>
+  </si>
+  <si>
+    <t>cannelle</t>
+  </si>
+  <si>
+    <t>procikevic</t>
+  </si>
+  <si>
+    <t>+32470077201</t>
+  </si>
+  <si>
+    <t>2022-10-25T17:07:48.000Z</t>
+  </si>
+  <si>
+    <t>Tibe</t>
+  </si>
+  <si>
+    <t>Gryson</t>
+  </si>
+  <si>
+    <t>0476284643</t>
+  </si>
+  <si>
+    <t>2022-10-25T17:09:39.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-25T17:36:40.000Z</t>
+  </si>
+  <si>
+    <t>Tieben</t>
+  </si>
+  <si>
+    <t>Bommerez</t>
+  </si>
+  <si>
+    <t>0475314165</t>
+  </si>
+  <si>
+    <t>2022-10-25T17:41:11.000Z</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Masureel</t>
+  </si>
+  <si>
+    <t>0474855899</t>
+  </si>
+  <si>
+    <t>2022-10-25T18:05:53.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie </t>
+  </si>
+  <si>
+    <t>Campaert</t>
+  </si>
+  <si>
+    <t>0475963326</t>
+  </si>
+  <si>
+    <t>2022-10-25T18:35:19.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schoonbaert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0479 25 97 56 </t>
+  </si>
+  <si>
+    <t>2022-10-25T18:35:59.000Z</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Gyselinck</t>
+  </si>
+  <si>
+    <t>0498142463</t>
+  </si>
+  <si>
+    <t>2022-10-25T18:59:27.000Z</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Standaert</t>
+  </si>
+  <si>
+    <t>0475314129</t>
+  </si>
+  <si>
+    <t>2022-10-25T19:01:35.000Z</t>
+  </si>
+  <si>
+    <t>Reynaert</t>
+  </si>
+  <si>
+    <t>0499231220</t>
+  </si>
+  <si>
+    <t>2022-10-25T19:10:29.000Z</t>
+  </si>
+  <si>
+    <t>Daan</t>
+  </si>
+  <si>
+    <t>Cordemans</t>
+  </si>
+  <si>
+    <t>0470830519</t>
+  </si>
+  <si>
+    <t>2022-10-25T19:17:53.000Z</t>
+  </si>
+  <si>
+    <t>Aelter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0493 84 66 35 </t>
+  </si>
+  <si>
+    <t>2022-10-25T19:21:49.000Z</t>
+  </si>
+  <si>
+    <t>De Muynck</t>
+  </si>
+  <si>
+    <t>0473337939</t>
+  </si>
+  <si>
+    <t>2022-10-25T19:34:05.000Z</t>
+  </si>
+  <si>
+    <t>Emiel</t>
+  </si>
+  <si>
+    <t>Van Lombergen</t>
+  </si>
+  <si>
+    <t>0477 534461</t>
+  </si>
+  <si>
+    <t>2022-10-25T19:39:01.000Z</t>
+  </si>
+  <si>
+    <t>Sander</t>
+  </si>
+  <si>
+    <t>Gomis Fourtado</t>
+  </si>
+  <si>
+    <t>0495470484</t>
+  </si>
+  <si>
+    <t>2022-10-25T19:42:20.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-25T20:05:11.000Z</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Lambrechts</t>
+  </si>
+  <si>
+    <t>0472872944</t>
+  </si>
+  <si>
+    <t>2022-10-25T20:22:52.000Z</t>
+  </si>
+  <si>
+    <t>Sidy</t>
+  </si>
+  <si>
+    <t>Diop</t>
+  </si>
+  <si>
+    <t>0476698638</t>
+  </si>
+  <si>
+    <t>2022-10-25T20:53:39.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maréchal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0474 31 70 86 </t>
+  </si>
+  <si>
+    <t>2022-10-25T21:24:04.000Z</t>
+  </si>
+  <si>
+    <t>Els</t>
+  </si>
+  <si>
+    <t>Goderis</t>
+  </si>
+  <si>
+    <t>+32496384572</t>
+  </si>
+  <si>
+    <t>2022-10-25T21:30:18.000Z</t>
+  </si>
+  <si>
+    <t>Vancaillie</t>
+  </si>
+  <si>
+    <t>0497925784</t>
+  </si>
+  <si>
+    <t>2022-10-25T22:04:31.000Z</t>
+  </si>
+  <si>
+    <t>Juul</t>
+  </si>
+  <si>
+    <t>Viaene</t>
+  </si>
+  <si>
+    <t>0473629571</t>
+  </si>
+  <si>
+    <t>2022-10-26T06:12:57.000Z</t>
+  </si>
+  <si>
+    <t>Leifr</t>
+  </si>
+  <si>
+    <t>Ryckaert</t>
+  </si>
+  <si>
+    <t>471973239</t>
+  </si>
+  <si>
+    <t>2022-10-26T06:30:37.000Z</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Dequidt</t>
+  </si>
+  <si>
+    <t>0486790153</t>
+  </si>
+  <si>
+    <t>2022-10-26T07:15:17.000Z</t>
+  </si>
+  <si>
+    <t>Fréderique</t>
+  </si>
+  <si>
+    <t>Loones</t>
+  </si>
+  <si>
+    <t>0477238102</t>
+  </si>
+  <si>
+    <t>2022-10-26T08:26:13.000Z</t>
+  </si>
+  <si>
+    <t>Depickere</t>
+  </si>
+  <si>
+    <t>0478404440</t>
+  </si>
+  <si>
+    <t>2022-10-26T09:22:00.000Z</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>0478275982</t>
+  </si>
+  <si>
+    <t>2022-10-26T10:56:26.000Z</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>De Busscher</t>
+  </si>
+  <si>
+    <t>+32496285930</t>
+  </si>
+  <si>
+    <t>2022-10-26T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>0474733585</t>
+  </si>
+  <si>
+    <t>2022-10-26T12:10:42.000Z</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>0473693058</t>
+  </si>
+  <si>
+    <t>2022-10-26T12:22:03.000Z</t>
+  </si>
+  <si>
+    <t>Tuline</t>
+  </si>
+  <si>
+    <t>Wentein</t>
+  </si>
+  <si>
+    <t>+32487823214</t>
+  </si>
+  <si>
+    <t>2022-10-26T12:30:51.000Z</t>
+  </si>
+  <si>
+    <t>alexander</t>
+  </si>
+  <si>
+    <t>Vandewalle</t>
+  </si>
+  <si>
+    <t>0470579321</t>
+  </si>
+  <si>
+    <t>2022-10-26T12:31:26.000Z</t>
+  </si>
+  <si>
+    <t>Georges</t>
+  </si>
+  <si>
+    <t>Bavay</t>
+  </si>
+  <si>
+    <t>0491879889</t>
+  </si>
+  <si>
+    <t>2022-10-26T12:33:36.000Z</t>
+  </si>
+  <si>
+    <t>Cas</t>
+  </si>
+  <si>
+    <t>Dejaegher</t>
+  </si>
+  <si>
+    <t>0473600379</t>
+  </si>
+  <si>
+    <t>2022-10-26T12:49:35.000Z</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Houtteman</t>
+  </si>
+  <si>
+    <t>0471064946</t>
+  </si>
+  <si>
+    <t>2022-10-26T13:08:01.000Z</t>
+  </si>
+  <si>
+    <t>françoise</t>
+  </si>
+  <si>
+    <t>piret</t>
+  </si>
+  <si>
+    <t>0475545250</t>
+  </si>
+  <si>
+    <t>2022-10-26T13:30:07.000Z</t>
+  </si>
+  <si>
+    <t>Wheatley</t>
+  </si>
+  <si>
+    <t>+32 478 28 96 03</t>
+  </si>
+  <si>
+    <t>2022-10-26T13:34:58.000Z</t>
+  </si>
+  <si>
+    <t>Boerjan</t>
+  </si>
+  <si>
+    <t>0478537351</t>
+  </si>
+  <si>
+    <t>2022-10-26T15:17:08.000Z</t>
+  </si>
+  <si>
+    <t>Rinus</t>
+  </si>
+  <si>
+    <t>Van kerkhof</t>
+  </si>
+  <si>
+    <t>0476460555</t>
+  </si>
+  <si>
+    <t>2022-10-26T15:37:25.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie </t>
+  </si>
+  <si>
+    <t>Piert</t>
+  </si>
+  <si>
+    <t>0489415030</t>
+  </si>
+  <si>
+    <t>2022-10-26T15:48:41.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strubbe </t>
+  </si>
+  <si>
+    <t>+32474591171</t>
+  </si>
+  <si>
+    <t>2022-10-26T16:29:54.000Z</t>
+  </si>
+  <si>
+    <t>Leander</t>
+  </si>
+  <si>
+    <t>Mergaert</t>
+  </si>
+  <si>
+    <t>0498702703</t>
+  </si>
+  <si>
+    <t>2022-10-26T16:50:50.000Z</t>
+  </si>
+  <si>
+    <t>Jochen</t>
+  </si>
+  <si>
+    <t>Vanden Berghe</t>
+  </si>
+  <si>
+    <t>0477/202894</t>
+  </si>
+  <si>
+    <t>2022-10-26T17:18:44.000Z</t>
+  </si>
+  <si>
+    <t>Niels</t>
+  </si>
+  <si>
+    <t>2022-10-26T17:19:47.000Z</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Cherlet</t>
+  </si>
+  <si>
+    <t>0476756256</t>
+  </si>
+  <si>
+    <t>2022-10-26T17:36:09.000Z</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>de Vreese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0470761938 </t>
+  </si>
+  <si>
+    <t>2022-10-26T17:36:56.000Z</t>
+  </si>
+  <si>
+    <t>Van Eeghem</t>
+  </si>
+  <si>
+    <t>+32468351678</t>
+  </si>
+  <si>
+    <t>2022-10-26T17:45:24.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braekevelt </t>
+  </si>
+  <si>
+    <t>0465 02 10 02</t>
+  </si>
+  <si>
+    <t>2022-10-26T18:53:32.000Z</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>De Vriese</t>
+  </si>
+  <si>
+    <t>0477227052</t>
+  </si>
+  <si>
+    <t>2022-10-26T19:36:52.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-26T20:04:40.000Z</t>
+  </si>
+  <si>
+    <t>Goeminne</t>
+  </si>
+  <si>
+    <t>0477 43 68 08</t>
+  </si>
+  <si>
+    <t>2022-10-26T20:11:00.000Z</t>
+  </si>
+  <si>
+    <t>049923120</t>
+  </si>
+  <si>
+    <t>2022-10-26T20:49:51.000Z</t>
+  </si>
+  <si>
+    <t>2022-10-26T20:52:17.000Z</t>
+  </si>
+  <si>
+    <t>Aernout</t>
+  </si>
+  <si>
+    <t>0495272507</t>
+  </si>
+  <si>
+    <t>2022-10-26T21:37:44.000Z</t>
+  </si>
+  <si>
+    <t>Marieke</t>
+  </si>
+  <si>
+    <t>0474973338</t>
+  </si>
+  <si>
+    <t>2022-10-27T07:21:01.000Z</t>
+  </si>
+  <si>
+    <t>Derous</t>
+  </si>
+  <si>
+    <t>0493994886</t>
+  </si>
+  <si>
+    <t>2022-10-27T09:33:05.000Z</t>
   </si>
 </sst>
 </file>
@@ -429,7 +2628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H208"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -466,7 +2665,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -481,13 +2680,5369 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" t="s">
+        <v>246</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" t="s">
+        <v>251</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" t="s">
+        <v>259</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" t="s">
+        <v>271</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" t="s">
+        <v>292</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" t="s">
+        <v>303</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" t="s">
+        <v>307</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" t="s">
+        <v>315</v>
+      </c>
+      <c r="D83" t="s">
+        <v>316</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" t="s">
+        <v>320</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s">
+        <v>324</v>
+      </c>
+      <c r="E85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" t="s">
+        <v>327</v>
+      </c>
+      <c r="D86" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D87" t="s">
+        <v>332</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>334</v>
+      </c>
+      <c r="D88" t="s">
+        <v>335</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>337</v>
+      </c>
+      <c r="C89" t="s">
+        <v>338</v>
+      </c>
+      <c r="D89" t="s">
+        <v>339</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" t="s">
+        <v>342</v>
+      </c>
+      <c r="D90" t="s">
+        <v>343</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>345</v>
+      </c>
+      <c r="C91" t="s">
+        <v>346</v>
+      </c>
+      <c r="D91" t="s">
+        <v>347</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" t="s">
+        <v>350</v>
+      </c>
+      <c r="D92" t="s">
+        <v>351</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>353</v>
+      </c>
+      <c r="C93" t="s">
+        <v>354</v>
+      </c>
+      <c r="D93" t="s">
+        <v>355</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" t="s">
+        <v>359</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>361</v>
+      </c>
+      <c r="C95" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" t="s">
+        <v>363</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>365</v>
+      </c>
+      <c r="C96" t="s">
+        <v>366</v>
+      </c>
+      <c r="D96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>369</v>
+      </c>
+      <c r="C97" t="s">
+        <v>370</v>
+      </c>
+      <c r="D97" t="s">
+        <v>371</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98" t="s">
+        <v>338</v>
+      </c>
+      <c r="D98" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" t="s">
+        <v>377</v>
+      </c>
+      <c r="D99" t="s">
+        <v>378</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" t="s">
+        <v>381</v>
+      </c>
+      <c r="D100" t="s">
+        <v>382</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>384</v>
+      </c>
+      <c r="C101" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>390</v>
+      </c>
+      <c r="C103" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>392</v>
+      </c>
+      <c r="C104" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" t="s">
+        <v>394</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>48</v>
+      </c>
+      <c r="H104" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>396</v>
+      </c>
+      <c r="C105" t="s">
+        <v>385</v>
+      </c>
+      <c r="D105" t="s">
+        <v>386</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>398</v>
+      </c>
+      <c r="C106" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" t="s">
+        <v>400</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>402</v>
+      </c>
+      <c r="C107" t="s">
+        <v>403</v>
+      </c>
+      <c r="D107" t="s">
+        <v>404</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>407</v>
+      </c>
+      <c r="C109" t="s">
+        <v>408</v>
+      </c>
+      <c r="D109" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>48</v>
+      </c>
+      <c r="H109" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>411</v>
+      </c>
+      <c r="C110" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>48</v>
+      </c>
+      <c r="H110" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>415</v>
+      </c>
+      <c r="C111" t="s">
+        <v>416</v>
+      </c>
+      <c r="D111" t="s">
+        <v>417</v>
+      </c>
+      <c r="E111" t="s">
+        <v>251</v>
+      </c>
+      <c r="F111">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>419</v>
+      </c>
+      <c r="C112" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" t="s">
+        <v>421</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H112" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>423</v>
+      </c>
+      <c r="C113" t="s">
+        <v>424</v>
+      </c>
+      <c r="D113" t="s">
+        <v>425</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>48</v>
+      </c>
+      <c r="H113" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>427</v>
+      </c>
+      <c r="C114" t="s">
+        <v>428</v>
+      </c>
+      <c r="D114" t="s">
+        <v>429</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>431</v>
+      </c>
+      <c r="C115" t="s">
+        <v>432</v>
+      </c>
+      <c r="D115" t="s">
+        <v>433</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>435</v>
+      </c>
+      <c r="C116" t="s">
+        <v>436</v>
+      </c>
+      <c r="D116" t="s">
+        <v>437</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116" t="s">
+        <v>48</v>
+      </c>
+      <c r="H116" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>439</v>
+      </c>
+      <c r="C117" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" t="s">
+        <v>441</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>443</v>
+      </c>
+      <c r="C118" t="s">
+        <v>444</v>
+      </c>
+      <c r="D118" t="s">
+        <v>445</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>447</v>
+      </c>
+      <c r="D119" t="s">
+        <v>448</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>402</v>
+      </c>
+      <c r="C120" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>453</v>
+      </c>
+      <c r="C121" t="s">
+        <v>454</v>
+      </c>
+      <c r="D121" t="s">
+        <v>455</v>
+      </c>
+      <c r="E121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>457</v>
+      </c>
+      <c r="C122" t="s">
+        <v>458</v>
+      </c>
+      <c r="D122" t="s">
+        <v>459</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>461</v>
+      </c>
+      <c r="C123" t="s">
+        <v>462</v>
+      </c>
+      <c r="D123" t="s">
+        <v>463</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>465</v>
+      </c>
+      <c r="C124" t="s">
+        <v>466</v>
+      </c>
+      <c r="D124" t="s">
+        <v>467</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>469</v>
+      </c>
+      <c r="C125" t="s">
+        <v>470</v>
+      </c>
+      <c r="D125" t="s">
+        <v>471</v>
+      </c>
+      <c r="E125" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>48</v>
+      </c>
+      <c r="H125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="s">
+        <v>473</v>
+      </c>
+      <c r="D126" t="s">
+        <v>474</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>476</v>
+      </c>
+      <c r="C127" t="s">
+        <v>477</v>
+      </c>
+      <c r="D127" t="s">
+        <v>478</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" t="s">
+        <v>433</v>
+      </c>
+      <c r="E128" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>361</v>
+      </c>
+      <c r="C129" t="s">
+        <v>481</v>
+      </c>
+      <c r="D129" t="s">
+        <v>482</v>
+      </c>
+      <c r="E129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>484</v>
+      </c>
+      <c r="C130" t="s">
+        <v>485</v>
+      </c>
+      <c r="D130" t="s">
+        <v>486</v>
+      </c>
+      <c r="E130" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>398</v>
+      </c>
+      <c r="C131" t="s">
+        <v>488</v>
+      </c>
+      <c r="D131" t="s">
+        <v>489</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H131" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>491</v>
+      </c>
+      <c r="C132" t="s">
+        <v>492</v>
+      </c>
+      <c r="D132" t="s">
+        <v>493</v>
+      </c>
+      <c r="E132" t="s">
+        <v>54</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133" t="s">
+        <v>496</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>498</v>
+      </c>
+      <c r="C134" t="s">
+        <v>499</v>
+      </c>
+      <c r="D134" t="s">
+        <v>500</v>
+      </c>
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135" t="s">
+        <v>503</v>
+      </c>
+      <c r="D135" t="s">
+        <v>504</v>
+      </c>
+      <c r="E135" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>506</v>
+      </c>
+      <c r="C136" t="s">
+        <v>507</v>
+      </c>
+      <c r="D136" t="s">
+        <v>508</v>
+      </c>
+      <c r="E136" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+      <c r="G136" t="s">
+        <v>48</v>
+      </c>
+      <c r="H136" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>240</v>
+      </c>
+      <c r="C137" t="s">
+        <v>510</v>
+      </c>
+      <c r="D137" t="s">
+        <v>511</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>513</v>
+      </c>
+      <c r="C138" t="s">
+        <v>514</v>
+      </c>
+      <c r="D138" t="s">
+        <v>515</v>
+      </c>
+      <c r="E138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>517</v>
+      </c>
+      <c r="C139" t="s">
+        <v>518</v>
+      </c>
+      <c r="D139" t="s">
+        <v>519</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139">
+        <v>104</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" t="s">
+        <v>521</v>
+      </c>
+      <c r="D140" t="s">
+        <v>522</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>48</v>
+      </c>
+      <c r="H140" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>524</v>
+      </c>
+      <c r="C141" t="s">
+        <v>525</v>
+      </c>
+      <c r="D141" t="s">
+        <v>526</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>528</v>
+      </c>
+      <c r="C142" t="s">
+        <v>529</v>
+      </c>
+      <c r="D142" t="s">
+        <v>530</v>
+      </c>
+      <c r="E142" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" t="s">
+        <v>532</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>534</v>
+      </c>
+      <c r="C144" t="s">
+        <v>535</v>
+      </c>
+      <c r="D144" t="s">
+        <v>536</v>
+      </c>
+      <c r="E144" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>48</v>
+      </c>
+      <c r="H144" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>117</v>
+      </c>
+      <c r="C145" t="s">
+        <v>538</v>
+      </c>
+      <c r="D145" t="s">
+        <v>539</v>
+      </c>
+      <c r="E145" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145">
+        <v>11</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>541</v>
+      </c>
+      <c r="C146" t="s">
+        <v>542</v>
+      </c>
+      <c r="D146" t="s">
+        <v>543</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>248</v>
+      </c>
+      <c r="C147" t="s">
+        <v>249</v>
+      </c>
+      <c r="D147" t="s">
+        <v>250</v>
+      </c>
+      <c r="E147" t="s">
+        <v>251</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>546</v>
+      </c>
+      <c r="C148" t="s">
+        <v>134</v>
+      </c>
+      <c r="D148" t="s">
+        <v>547</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>48</v>
+      </c>
+      <c r="H148" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" t="s">
+        <v>549</v>
+      </c>
+      <c r="D149" t="s">
+        <v>550</v>
+      </c>
+      <c r="E149" t="s">
+        <v>54</v>
+      </c>
+      <c r="F149">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>109</v>
+      </c>
+      <c r="C150" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150">
+        <v>6</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>553</v>
+      </c>
+      <c r="C151" t="s">
+        <v>554</v>
+      </c>
+      <c r="D151" t="s">
+        <v>555</v>
+      </c>
+      <c r="E151" t="s">
+        <v>54</v>
+      </c>
+      <c r="F151">
+        <v>20</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>557</v>
+      </c>
+      <c r="C152" t="s">
+        <v>558</v>
+      </c>
+      <c r="D152" t="s">
+        <v>559</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="G152" t="s">
+        <v>48</v>
+      </c>
+      <c r="H152" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>561</v>
+      </c>
+      <c r="C153" t="s">
+        <v>562</v>
+      </c>
+      <c r="D153" t="s">
+        <v>563</v>
+      </c>
+      <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153">
+        <v>25</v>
+      </c>
+      <c r="G153" t="s">
+        <v>48</v>
+      </c>
+      <c r="H153" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>248</v>
+      </c>
+      <c r="C154" t="s">
+        <v>249</v>
+      </c>
+      <c r="D154" t="s">
+        <v>250</v>
+      </c>
+      <c r="E154" t="s">
+        <v>251</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>566</v>
+      </c>
+      <c r="C155" t="s">
+        <v>567</v>
+      </c>
+      <c r="D155" t="s">
+        <v>568</v>
+      </c>
+      <c r="E155" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>570</v>
+      </c>
+      <c r="C156" t="s">
+        <v>571</v>
+      </c>
+      <c r="D156" t="s">
+        <v>572</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156">
+        <v>7</v>
+      </c>
+      <c r="G156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>574</v>
+      </c>
+      <c r="C157" t="s">
+        <v>575</v>
+      </c>
+      <c r="D157" t="s">
+        <v>576</v>
+      </c>
+      <c r="E157" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157">
+        <v>6</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>578</v>
+      </c>
+      <c r="C158" t="s">
+        <v>579</v>
+      </c>
+      <c r="D158" t="s">
+        <v>580</v>
+      </c>
+      <c r="E158" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>582</v>
+      </c>
+      <c r="C159" t="s">
+        <v>583</v>
+      </c>
+      <c r="D159" t="s">
+        <v>584</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159">
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>48</v>
+      </c>
+      <c r="H159" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>586</v>
+      </c>
+      <c r="C160" t="s">
+        <v>587</v>
+      </c>
+      <c r="D160" t="s">
+        <v>588</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>48</v>
+      </c>
+      <c r="H160" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" t="s">
+        <v>590</v>
+      </c>
+      <c r="D161" t="s">
+        <v>591</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>593</v>
+      </c>
+      <c r="C162" t="s">
+        <v>594</v>
+      </c>
+      <c r="D162" t="s">
+        <v>595</v>
+      </c>
+      <c r="E162" t="s">
+        <v>54</v>
+      </c>
+      <c r="F162">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>593</v>
+      </c>
+      <c r="C163" t="s">
+        <v>597</v>
+      </c>
+      <c r="D163" t="s">
+        <v>598</v>
+      </c>
+      <c r="E163" t="s">
+        <v>251</v>
+      </c>
+      <c r="F163">
+        <v>25</v>
+      </c>
+      <c r="G163" t="s">
+        <v>48</v>
+      </c>
+      <c r="H163" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>121</v>
+      </c>
+      <c r="C164" t="s">
+        <v>600</v>
+      </c>
+      <c r="D164" t="s">
+        <v>601</v>
+      </c>
+      <c r="E164" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+      <c r="G164" t="s">
+        <v>48</v>
+      </c>
+      <c r="H164" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>603</v>
+      </c>
+      <c r="C165" t="s">
+        <v>604</v>
+      </c>
+      <c r="D165" t="s">
+        <v>605</v>
+      </c>
+      <c r="E165" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="G165" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>607</v>
+      </c>
+      <c r="C166" t="s">
+        <v>608</v>
+      </c>
+      <c r="D166" t="s">
+        <v>609</v>
+      </c>
+      <c r="E166" t="s">
+        <v>33</v>
+      </c>
+      <c r="F166">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>593</v>
+      </c>
+      <c r="C167" t="s">
+        <v>594</v>
+      </c>
+      <c r="D167" t="s">
+        <v>595</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>612</v>
+      </c>
+      <c r="C168" t="s">
+        <v>613</v>
+      </c>
+      <c r="D168" t="s">
+        <v>614</v>
+      </c>
+      <c r="E168" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>616</v>
+      </c>
+      <c r="C169" t="s">
+        <v>617</v>
+      </c>
+      <c r="D169" t="s">
+        <v>618</v>
+      </c>
+      <c r="E169" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>48</v>
+      </c>
+      <c r="H169" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>491</v>
+      </c>
+      <c r="C170" t="s">
+        <v>620</v>
+      </c>
+      <c r="D170" t="s">
+        <v>621</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170">
+        <v>31</v>
+      </c>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>623</v>
+      </c>
+      <c r="C171" t="s">
+        <v>624</v>
+      </c>
+      <c r="D171" t="s">
+        <v>625</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>48</v>
+      </c>
+      <c r="H171" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>125</v>
+      </c>
+      <c r="C172" t="s">
+        <v>627</v>
+      </c>
+      <c r="D172" t="s">
+        <v>628</v>
+      </c>
+      <c r="E172" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>48</v>
+      </c>
+      <c r="H172" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>630</v>
+      </c>
+      <c r="C173" t="s">
+        <v>631</v>
+      </c>
+      <c r="D173" t="s">
+        <v>632</v>
+      </c>
+      <c r="E173" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173">
+        <v>5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>48</v>
+      </c>
+      <c r="H173" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>634</v>
+      </c>
+      <c r="C174" t="s">
+        <v>635</v>
+      </c>
+      <c r="D174" t="s">
+        <v>636</v>
+      </c>
+      <c r="E174" t="s">
+        <v>54</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>638</v>
+      </c>
+      <c r="C175" t="s">
+        <v>639</v>
+      </c>
+      <c r="D175" t="s">
+        <v>640</v>
+      </c>
+      <c r="E175" t="s">
+        <v>43</v>
+      </c>
+      <c r="F175">
+        <v>41</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>642</v>
+      </c>
+      <c r="C176" t="s">
+        <v>643</v>
+      </c>
+      <c r="D176" t="s">
+        <v>644</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+      <c r="G176" t="s">
+        <v>48</v>
+      </c>
+      <c r="H176" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>491</v>
+      </c>
+      <c r="C177" t="s">
+        <v>646</v>
+      </c>
+      <c r="D177" t="s">
+        <v>647</v>
+      </c>
+      <c r="E177" t="s">
+        <v>33</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177" t="s">
+        <v>34</v>
+      </c>
+      <c r="H177" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>649</v>
+      </c>
+      <c r="C178" t="s">
+        <v>420</v>
+      </c>
+      <c r="D178" t="s">
+        <v>650</v>
+      </c>
+      <c r="E178" t="s">
+        <v>54</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="G178" t="s">
+        <v>48</v>
+      </c>
+      <c r="H178" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>652</v>
+      </c>
+      <c r="C179" t="s">
+        <v>653</v>
+      </c>
+      <c r="D179" t="s">
+        <v>654</v>
+      </c>
+      <c r="E179" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179" t="s">
+        <v>48</v>
+      </c>
+      <c r="H179" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>240</v>
+      </c>
+      <c r="C180" t="s">
+        <v>241</v>
+      </c>
+      <c r="D180" t="s">
+        <v>656</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180">
+        <v>37</v>
+      </c>
+      <c r="G180" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>658</v>
+      </c>
+      <c r="C181" t="s">
+        <v>450</v>
+      </c>
+      <c r="D181" t="s">
+        <v>659</v>
+      </c>
+      <c r="E181" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>48</v>
+      </c>
+      <c r="H181" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>661</v>
+      </c>
+      <c r="C182" t="s">
+        <v>662</v>
+      </c>
+      <c r="D182" t="s">
+        <v>663</v>
+      </c>
+      <c r="E182" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182" t="s">
+        <v>48</v>
+      </c>
+      <c r="H182" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>665</v>
+      </c>
+      <c r="C183" t="s">
+        <v>666</v>
+      </c>
+      <c r="D183" t="s">
+        <v>667</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183">
+        <v>5</v>
+      </c>
+      <c r="G183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>669</v>
+      </c>
+      <c r="C184" t="s">
+        <v>670</v>
+      </c>
+      <c r="D184" t="s">
+        <v>671</v>
+      </c>
+      <c r="E184" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184" t="s">
+        <v>34</v>
+      </c>
+      <c r="H184" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>673</v>
+      </c>
+      <c r="C185" t="s">
+        <v>674</v>
+      </c>
+      <c r="D185" t="s">
+        <v>675</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185">
+        <v>5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>48</v>
+      </c>
+      <c r="H185" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>677</v>
+      </c>
+      <c r="C186" t="s">
+        <v>678</v>
+      </c>
+      <c r="D186" t="s">
+        <v>679</v>
+      </c>
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>681</v>
+      </c>
+      <c r="C187" t="s">
+        <v>682</v>
+      </c>
+      <c r="D187" t="s">
+        <v>683</v>
+      </c>
+      <c r="E187" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187">
+        <v>6</v>
+      </c>
+      <c r="G187" t="s">
+        <v>34</v>
+      </c>
+      <c r="H187" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>190</v>
+      </c>
+      <c r="B188" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" t="s">
+        <v>685</v>
+      </c>
+      <c r="D188" t="s">
+        <v>686</v>
+      </c>
+      <c r="E188" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188">
+        <v>3</v>
+      </c>
+      <c r="G188" t="s">
+        <v>34</v>
+      </c>
+      <c r="H188" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>407</v>
+      </c>
+      <c r="C189" t="s">
+        <v>688</v>
+      </c>
+      <c r="D189" t="s">
+        <v>689</v>
+      </c>
+      <c r="E189" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189">
+        <v>18</v>
+      </c>
+      <c r="G189" t="s">
+        <v>48</v>
+      </c>
+      <c r="H189" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>691</v>
+      </c>
+      <c r="C190" t="s">
+        <v>692</v>
+      </c>
+      <c r="D190" t="s">
+        <v>693</v>
+      </c>
+      <c r="E190" t="s">
+        <v>20</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>34</v>
+      </c>
+      <c r="H190" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>695</v>
+      </c>
+      <c r="C191" t="s">
+        <v>696</v>
+      </c>
+      <c r="D191" t="s">
+        <v>697</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s">
+        <v>12</v>
+      </c>
+      <c r="H191" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>699</v>
+      </c>
+      <c r="C192" t="s">
+        <v>700</v>
+      </c>
+      <c r="D192" t="s">
+        <v>701</v>
+      </c>
+      <c r="E192" t="s">
+        <v>251</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>703</v>
+      </c>
+      <c r="C193" t="s">
+        <v>704</v>
+      </c>
+      <c r="D193" t="s">
+        <v>705</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193">
+        <v>15</v>
+      </c>
+      <c r="G193" t="s">
+        <v>48</v>
+      </c>
+      <c r="H193" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>707</v>
+      </c>
+      <c r="C194" t="s">
+        <v>708</v>
+      </c>
+      <c r="D194" t="s">
+        <v>709</v>
+      </c>
+      <c r="E194" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194">
+        <v>5</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>711</v>
+      </c>
+      <c r="C195" t="s">
+        <v>708</v>
+      </c>
+      <c r="D195" t="s">
+        <v>709</v>
+      </c>
+      <c r="E195" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+      <c r="G195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>713</v>
+      </c>
+      <c r="C196" t="s">
+        <v>714</v>
+      </c>
+      <c r="D196" t="s">
+        <v>715</v>
+      </c>
+      <c r="E196" t="s">
+        <v>43</v>
+      </c>
+      <c r="F196">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>717</v>
+      </c>
+      <c r="C197" t="s">
+        <v>718</v>
+      </c>
+      <c r="D197" t="s">
+        <v>719</v>
+      </c>
+      <c r="E197" t="s">
+        <v>20</v>
+      </c>
+      <c r="F197">
+        <v>5</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>200</v>
+      </c>
+      <c r="B198" t="s">
+        <v>248</v>
+      </c>
+      <c r="C198" t="s">
+        <v>721</v>
+      </c>
+      <c r="D198" t="s">
+        <v>722</v>
+      </c>
+      <c r="E198" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>439</v>
+      </c>
+      <c r="C199" t="s">
+        <v>724</v>
+      </c>
+      <c r="D199" t="s">
+        <v>725</v>
+      </c>
+      <c r="E199" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199">
+        <v>77</v>
+      </c>
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s">
+        <v>727</v>
+      </c>
+      <c r="C200" t="s">
+        <v>728</v>
+      </c>
+      <c r="D200" t="s">
+        <v>729</v>
+      </c>
+      <c r="E200" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200" t="s">
+        <v>34</v>
+      </c>
+      <c r="H200" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>593</v>
+      </c>
+      <c r="C201" t="s">
+        <v>594</v>
+      </c>
+      <c r="D201" t="s">
+        <v>595</v>
+      </c>
+      <c r="E201" t="s">
+        <v>54</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>204</v>
+      </c>
+      <c r="B202" t="s">
+        <v>638</v>
+      </c>
+      <c r="C202" t="s">
+        <v>732</v>
+      </c>
+      <c r="D202" t="s">
+        <v>733</v>
+      </c>
+      <c r="E202" t="s">
+        <v>33</v>
+      </c>
+      <c r="F202">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>638</v>
+      </c>
+      <c r="C203" t="s">
+        <v>732</v>
+      </c>
+      <c r="D203" t="s">
+        <v>733</v>
+      </c>
+      <c r="E203" t="s">
+        <v>33</v>
+      </c>
+      <c r="F203">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" t="s">
+        <v>590</v>
+      </c>
+      <c r="D204" t="s">
+        <v>735</v>
+      </c>
+      <c r="E204" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>677</v>
+      </c>
+      <c r="C205" t="s">
+        <v>678</v>
+      </c>
+      <c r="D205" t="s">
+        <v>679</v>
+      </c>
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205">
+        <v>5</v>
+      </c>
+      <c r="G205" t="s">
+        <v>48</v>
+      </c>
+      <c r="H205" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>208</v>
+      </c>
+      <c r="B206" t="s">
+        <v>244</v>
+      </c>
+      <c r="C206" t="s">
+        <v>738</v>
+      </c>
+      <c r="D206" t="s">
+        <v>739</v>
+      </c>
+      <c r="E206" t="s">
+        <v>251</v>
+      </c>
+      <c r="F206">
+        <v>5</v>
+      </c>
+      <c r="G206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>741</v>
+      </c>
+      <c r="C207" t="s">
+        <v>179</v>
+      </c>
+      <c r="D207" t="s">
+        <v>742</v>
+      </c>
+      <c r="E207" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+      <c r="G207" t="s">
+        <v>34</v>
+      </c>
+      <c r="H207" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>210</v>
+      </c>
+      <c r="B208" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208" t="s">
+        <v>744</v>
+      </c>
+      <c r="D208" t="s">
+        <v>745</v>
+      </c>
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208">
+        <v>20</v>
+      </c>
+      <c r="G208" t="s">
+        <v>48</v>
+      </c>
+      <c r="H208" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
